--- a/xlsx/万圣夜_intext.xlsx
+++ b/xlsx/万圣夜_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="230">
   <si>
     <t>万圣夜</t>
   </si>
@@ -29,7 +29,7 @@
     <t>诸圣节</t>
   </si>
   <si>
-    <t>政策_政策_美國_万圣夜</t>
+    <t>政策_政策_美国_万圣夜</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%90%AC%E8%81%96%E7%AF%80</t>
@@ -47,7 +47,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%82%91%E5%85%8B%E5%8D%97%E7%93%9C%E7%87%88</t>
   </si>
   <si>
-    <t>傑克南瓜燈</t>
+    <t>杰克南瓜灯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E6%96%B9%E5%9F%BA%E7%9D%A3%E6%95%99</t>
@@ -95,7 +95,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%92%AC%E8%98%8B%E6%9E%9C</t>
   </si>
   <si>
-    <t>咬蘋果</t>
+    <t>咬苹果</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A6%81%E9%A3%9F</t>
@@ -122,9 +122,6 @@
     <t>宗教改革日</t>
   </si>
   <si>
-    <t>諸聖節</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E6%96%B9%E4%B8%96%E7%95%8C</t>
   </si>
   <si>
@@ -134,19 +131,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%92%92%E5%85%8B%E9%81%9C%E4%BA%BA</t>
   </si>
   <si>
-    <t>撒克遜人</t>
+    <t>撒克逊人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8D%E5%88%97%E9%A1%9B%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>不列顛群島</t>
+    <t>不列颠群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E5%A4%A7%E5%88%A9%E4%BA%9A</t>
@@ -164,7 +161,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%A5%BF%E8%98%AD</t>
   </si>
   <si>
-    <t>新西蘭</t>
+    <t>新西兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B3%96%E6%9E%9C</t>
@@ -200,7 +197,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%85%83%E7%AF%80%E8%88%87%E7%9B%82%E8%98%AD%E7%AF%80</t>
   </si>
   <si>
-    <t>中元節與盂蘭節</t>
+    <t>中元节与盂兰节</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC</t>
@@ -218,7 +215,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%98%8E%E5%B0%BC%E8%98%87%E9%81%94%E5%B7%9E</t>
   </si>
   <si>
-    <t>明尼蘇達州</t>
+    <t>明尼苏达州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E8%AF%BA%E5%8D%A1_(%E6%98%8E%E5%B0%BC%E8%8B%8F%E8%BE%BE%E5%B7%9E)</t>
@@ -284,19 +281,16 @@
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E7%88%BE%E8%98%AD</t>
   </si>
   <si>
-    <t>愛爾蘭</t>
+    <t>爱尔兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E6%A0%BC%E8%98%AD</t>
   </si>
   <si>
-    <t>蘇格蘭</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%96%87%E5%8C%96</t>
   </si>
   <si>
-    <t>美國文化</t>
+    <t>美国文化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%BB%E4%BA%A1</t>
@@ -332,7 +326,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A3%9F%E5%B1%8D%E9%AC%BC</t>
   </si>
   <si>
-    <t>食屍鬼</t>
+    <t>食尸鬼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%B3%E5%B7%AB</t>
@@ -350,37 +344,37 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BB%91%E8%B2%93</t>
   </si>
   <si>
-    <t>黑貓</t>
+    <t>黑猫</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%93%E9%A0%AD%E9%B7%B9</t>
   </si>
   <si>
-    <t>貓頭鷹</t>
+    <t>猫头鹰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B2%BE%E9%9D%88</t>
   </si>
   <si>
-    <t>精靈</t>
+    <t>精灵</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AE%AD%E5%B1%8D</t>
   </si>
   <si>
-    <t>殭屍</t>
+    <t>殭尸</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AA%B7%E9%AB%8F</t>
   </si>
   <si>
-    <t>骷髏</t>
+    <t>骷髅</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%83%A1%E9%AD%94</t>
   </si>
   <si>
-    <t>惡魔</t>
+    <t>恶魔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%B8%E8%A1%80%E9%AC%BC</t>
@@ -392,7 +386,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%AD%B8%E6%80%AA%E4%BA%BA</t>
   </si>
   <si>
-    <t>科學怪人</t>
+    <t>科学怪人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BB%91%E8%89%B2</t>
@@ -416,13 +410,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%A0%E8%89%B2</t>
   </si>
   <si>
-    <t>綠色</t>
+    <t>绿色</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%85%E8%89%B2</t>
   </si>
   <si>
-    <t>紅色</t>
+    <t>红色</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%8B%E5%A4%A9</t>
@@ -440,19 +434,16 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B0%E5%85%8B%E5%8D%97%E7%93%9C%E7%81%AF</t>
   </si>
   <si>
-    <t>杰克南瓜灯</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%95%AA%E8%8F%81</t>
   </si>
   <si>
-    <t>蕪菁</t>
+    <t>芜菁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B</t>
   </si>
   <si>
-    <t>英國</t>
+    <t>英国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A7%E5%85%8B%E5%8A%9B</t>
@@ -464,19 +455,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E8%A6%96%E5%8A%87</t>
   </si>
   <si>
-    <t>電視劇</t>
+    <t>电视剧</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E5%BD%B1</t>
   </si>
   <si>
-    <t>電影</t>
+    <t>电影</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2004%E5%B9%B4%E7%BE%8E%E5%9C%8B%E7%B8%BD%E7%B5%B1%E9%81%B8%E8%88%89</t>
   </si>
   <si>
-    <t>2004年美國總統選舉</t>
+    <t>2004年美国总统选举</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%94%E6%B2%BB%C2%B7%E5%B8%83%E4%BB%80</t>
@@ -500,7 +491,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B6%88%E9%98%B2%E5%93%A1</t>
   </si>
   <si>
-    <t>消防員</t>
+    <t>消防员</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AD%A6%E5%AF%9F</t>
@@ -518,7 +509,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%98%8B%E6%9E%9C</t>
   </si>
   <si>
-    <t>蘋果</t>
+    <t>苹果</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%9B%9E%E8%9D%93</t>
@@ -530,7 +521,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%80%E5%8D%A1</t>
   </si>
   <si>
-    <t>賀卡</t>
+    <t>贺卡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AC%BC%E6%95%85%E4%BA%8B</t>
@@ -566,15 +557,12 @@
     <t>https://zh.wikipedia.org/wiki/%E8%98%8B%E6%9E%9C%E9%85%92</t>
   </si>
   <si>
-    <t>蘋果酒</t>
+    <t>苹果酒</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%87%B1%E7%88%BE%E7%89%B9%E4%BA%BA</t>
   </si>
   <si>
-    <t>凱爾特人</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%90%A8%E6%B8%A9%E8%8A%82</t>
   </si>
   <si>
@@ -584,7 +572,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E9%AD%AF%E4%BC%8A</t>
   </si>
   <si>
-    <t>德魯伊</t>
+    <t>德鲁伊</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%BB%E7%A5%9E_(%E6%97%A5%E6%9C%AC)</t>
@@ -602,13 +590,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%AA%A8%E9%A0%AD%E7%81%AB%E5%A0%86</t>
   </si>
   <si>
-    <t>骨頭火堆</t>
+    <t>骨头火堆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E7%95%B0%E6%95%99%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>新異教主義</t>
+    <t>新异教主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8C%AA%E5%A8%81%E7%A5%9E%E8%AF%9D</t>
@@ -620,7 +608,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E8%80%B3%E6%9B%BC%E6%96%B0%E7%95%B0%E6%95%99%E9%81%8B%E5%8B%95</t>
   </si>
   <si>
-    <t>日耳曼新異教運動</t>
+    <t>日耳曼新异教运动</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/bl%C3%B3t</t>
@@ -632,9 +620,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B2%BE%E7%81%B5</t>
   </si>
   <si>
-    <t>精灵</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%85%B8</t>
   </si>
   <si>
@@ -650,7 +635,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%88%86%E9%BB%9E</t>
   </si>
   <si>
-    <t>分點</t>
+    <t>分点</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%81%AB%E8%8D%AF%E9%98%B4%E8%B0%8B</t>
@@ -662,13 +647,10 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%AA%95%E7%AF%80</t>
   </si>
   <si>
-    <t>聖誕節</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BD%B1%E9%9F%B3%E4%BD%BF%E5%9C%98</t>
   </si>
   <si>
-    <t>影音使團</t>
+    <t>影音使团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AD%94%E9%AC%BC</t>
@@ -686,7 +668,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%9F%E5%BE%85%E8%80%B6%E7%A9%8C%E7%AF%80</t>
   </si>
   <si>
-    <t>期待耶穌節</t>
+    <t>期待耶稣节</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%80%B6%E7%A8%A3</t>
@@ -698,7 +680,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E7%B6%93</t>
   </si>
   <si>
-    <t>聖經</t>
+    <t>圣经</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%81%E5%AD%97%E6%9E%B6</t>
@@ -722,7 +704,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E4%BF%9D%E8%81%96%E4%BA%BA</t>
   </si>
   <si>
-    <t>主保聖人</t>
+    <t>主保圣人</t>
   </si>
 </sst>
 </file>
@@ -1586,7 +1568,7 @@
         <v>2</v>
       </c>
       <c r="F18" t="s">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="G18" t="n">
         <v>5</v>
@@ -1612,10 +1594,10 @@
         <v>18</v>
       </c>
       <c r="E19" t="s">
+        <v>35</v>
+      </c>
+      <c r="F19" t="s">
         <v>36</v>
-      </c>
-      <c r="F19" t="s">
-        <v>37</v>
       </c>
       <c r="G19" t="n">
         <v>1</v>
@@ -1641,10 +1623,10 @@
         <v>19</v>
       </c>
       <c r="E20" t="s">
+        <v>37</v>
+      </c>
+      <c r="F20" t="s">
         <v>38</v>
-      </c>
-      <c r="F20" t="s">
-        <v>39</v>
       </c>
       <c r="G20" t="n">
         <v>1</v>
@@ -1670,10 +1652,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
+        <v>39</v>
+      </c>
+      <c r="F21" t="s">
         <v>40</v>
-      </c>
-      <c r="F21" t="s">
-        <v>41</v>
       </c>
       <c r="G21" t="n">
         <v>14</v>
@@ -1699,10 +1681,10 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
+        <v>41</v>
+      </c>
+      <c r="F22" t="s">
         <v>42</v>
-      </c>
-      <c r="F22" t="s">
-        <v>43</v>
       </c>
       <c r="G22" t="n">
         <v>2</v>
@@ -1728,10 +1710,10 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" t="s">
         <v>44</v>
-      </c>
-      <c r="F23" t="s">
-        <v>45</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -1757,10 +1739,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
+        <v>45</v>
+      </c>
+      <c r="F24" t="s">
         <v>46</v>
-      </c>
-      <c r="F24" t="s">
-        <v>47</v>
       </c>
       <c r="G24" t="n">
         <v>5</v>
@@ -1786,10 +1768,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
+        <v>47</v>
+      </c>
+      <c r="F25" t="s">
         <v>48</v>
-      </c>
-      <c r="F25" t="s">
-        <v>49</v>
       </c>
       <c r="G25" t="n">
         <v>2</v>
@@ -1815,10 +1797,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
+        <v>49</v>
+      </c>
+      <c r="F26" t="s">
         <v>50</v>
-      </c>
-      <c r="F26" t="s">
-        <v>51</v>
       </c>
       <c r="G26" t="n">
         <v>10</v>
@@ -1844,10 +1826,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
+        <v>51</v>
+      </c>
+      <c r="F27" t="s">
         <v>52</v>
-      </c>
-      <c r="F27" t="s">
-        <v>53</v>
       </c>
       <c r="G27" t="n">
         <v>4</v>
@@ -1873,10 +1855,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
+        <v>53</v>
+      </c>
+      <c r="F28" t="s">
         <v>54</v>
-      </c>
-      <c r="F28" t="s">
-        <v>55</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -1902,10 +1884,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
+        <v>55</v>
+      </c>
+      <c r="F29" t="s">
         <v>56</v>
-      </c>
-      <c r="F29" t="s">
-        <v>57</v>
       </c>
       <c r="G29" t="n">
         <v>3</v>
@@ -1931,10 +1913,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>57</v>
+      </c>
+      <c r="F30" t="s">
         <v>58</v>
-      </c>
-      <c r="F30" t="s">
-        <v>59</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -1960,10 +1942,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>59</v>
+      </c>
+      <c r="F31" t="s">
         <v>60</v>
-      </c>
-      <c r="F31" t="s">
-        <v>61</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -1989,10 +1971,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>61</v>
+      </c>
+      <c r="F32" t="s">
         <v>62</v>
-      </c>
-      <c r="F32" t="s">
-        <v>63</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -2018,10 +2000,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>63</v>
+      </c>
+      <c r="F33" t="s">
         <v>64</v>
-      </c>
-      <c r="F33" t="s">
-        <v>65</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -2047,10 +2029,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>65</v>
+      </c>
+      <c r="F34" t="s">
         <v>66</v>
-      </c>
-      <c r="F34" t="s">
-        <v>67</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -2076,10 +2058,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>67</v>
+      </c>
+      <c r="F35" t="s">
         <v>68</v>
-      </c>
-      <c r="F35" t="s">
-        <v>69</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -2105,10 +2087,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>69</v>
+      </c>
+      <c r="F36" t="s">
         <v>70</v>
-      </c>
-      <c r="F36" t="s">
-        <v>71</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -2134,10 +2116,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>71</v>
+      </c>
+      <c r="F37" t="s">
         <v>72</v>
-      </c>
-      <c r="F37" t="s">
-        <v>73</v>
       </c>
       <c r="G37" t="n">
         <v>7</v>
@@ -2163,10 +2145,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>73</v>
+      </c>
+      <c r="F38" t="s">
         <v>74</v>
-      </c>
-      <c r="F38" t="s">
-        <v>75</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -2192,10 +2174,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>75</v>
+      </c>
+      <c r="F39" t="s">
         <v>76</v>
-      </c>
-      <c r="F39" t="s">
-        <v>77</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -2221,10 +2203,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>77</v>
+      </c>
+      <c r="F40" t="s">
         <v>78</v>
-      </c>
-      <c r="F40" t="s">
-        <v>79</v>
       </c>
       <c r="G40" t="n">
         <v>6</v>
@@ -2250,10 +2232,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>79</v>
+      </c>
+      <c r="F41" t="s">
         <v>80</v>
-      </c>
-      <c r="F41" t="s">
-        <v>81</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -2279,10 +2261,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>81</v>
+      </c>
+      <c r="F42" t="s">
         <v>82</v>
-      </c>
-      <c r="F42" t="s">
-        <v>83</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -2308,10 +2290,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>83</v>
+      </c>
+      <c r="F43" t="s">
         <v>84</v>
-      </c>
-      <c r="F43" t="s">
-        <v>85</v>
       </c>
       <c r="G43" t="n">
         <v>2</v>
@@ -2337,10 +2319,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>85</v>
+      </c>
+      <c r="F44" t="s">
         <v>86</v>
-      </c>
-      <c r="F44" t="s">
-        <v>87</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -2366,10 +2348,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>43</v>
+      </c>
+      <c r="F45" t="s">
         <v>44</v>
-      </c>
-      <c r="F45" t="s">
-        <v>45</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -2395,10 +2377,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>87</v>
+      </c>
+      <c r="F46" t="s">
         <v>88</v>
-      </c>
-      <c r="F46" t="s">
-        <v>89</v>
       </c>
       <c r="G46" t="n">
         <v>9</v>
@@ -2424,10 +2406,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F47" t="s">
-        <v>91</v>
+        <v>52</v>
       </c>
       <c r="G47" t="n">
         <v>3</v>
@@ -2453,10 +2435,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F48" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -2482,10 +2464,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F49" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G49" t="n">
         <v>5</v>
@@ -2511,10 +2493,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F50" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -2540,10 +2522,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F51" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -2569,10 +2551,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F52" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G52" t="n">
         <v>14</v>
@@ -2598,10 +2580,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F53" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G53" t="n">
         <v>8</v>
@@ -2627,10 +2609,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F54" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -2656,10 +2638,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F55" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G55" t="n">
         <v>2</v>
@@ -2685,10 +2667,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F56" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -2714,10 +2696,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F57" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -2743,10 +2725,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F58" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -2772,10 +2754,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F59" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -2801,10 +2783,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F60" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G60" t="n">
         <v>2</v>
@@ -2830,10 +2812,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F61" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G61" t="n">
         <v>2</v>
@@ -2859,10 +2841,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F62" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G62" t="n">
         <v>3</v>
@@ -2888,10 +2870,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F63" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -2917,10 +2899,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F64" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -2946,10 +2928,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F65" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -2975,10 +2957,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F66" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -3004,10 +2986,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F67" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -3033,10 +3015,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F68" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G68" t="n">
         <v>2</v>
@@ -3062,10 +3044,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F69" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -3091,10 +3073,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F70" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -3120,10 +3102,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F71" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -3149,10 +3131,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F72" t="s">
-        <v>141</v>
+        <v>10</v>
       </c>
       <c r="G72" t="n">
         <v>2</v>
@@ -3178,10 +3160,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F73" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -3207,10 +3189,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F74" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G74" t="n">
         <v>2</v>
@@ -3236,10 +3218,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F75" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -3265,10 +3247,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F76" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -3294,10 +3276,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F77" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -3323,10 +3305,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F78" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -3352,10 +3334,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F79" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -3381,10 +3363,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F80" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -3410,10 +3392,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F81" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -3439,10 +3421,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F82" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -3468,10 +3450,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F83" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -3497,10 +3479,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F84" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -3526,10 +3508,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F85" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G85" t="n">
         <v>13</v>
@@ -3555,10 +3537,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="F86" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="G86" t="n">
         <v>2</v>
@@ -3584,10 +3566,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F87" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -3613,10 +3595,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F88" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -3642,10 +3624,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F89" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -3671,10 +3653,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F90" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G90" t="n">
         <v>3</v>
@@ -3700,10 +3682,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F91" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="G91" t="n">
         <v>4</v>
@@ -3729,10 +3711,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F92" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -3758,10 +3740,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="F93" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -3787,10 +3769,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F94" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -3816,10 +3798,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="F95" t="s">
-        <v>185</v>
+        <v>76</v>
       </c>
       <c r="G95" t="n">
         <v>5</v>
@@ -3845,10 +3827,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="F96" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="G96" t="n">
         <v>4</v>
@@ -3874,10 +3856,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="F97" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G97" t="n">
         <v>2</v>
@@ -3903,10 +3885,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="F98" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="G98" t="n">
         <v>2</v>
@@ -3932,10 +3914,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="F99" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -3961,10 +3943,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="F100" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -3990,10 +3972,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="F101" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -4019,10 +4001,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="F102" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -4048,10 +4030,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="F103" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4077,10 +4059,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="F104" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="G104" t="n">
         <v>5</v>
@@ -4106,10 +4088,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F105" t="s">
-        <v>205</v>
+        <v>113</v>
       </c>
       <c r="G105" t="n">
         <v>4</v>
@@ -4135,10 +4117,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="F106" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4164,10 +4146,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="F107" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -4193,10 +4175,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="F108" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4222,10 +4204,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="F109" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4251,10 +4233,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="F110" t="s">
-        <v>215</v>
+        <v>70</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -4280,10 +4262,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="F111" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -4309,10 +4291,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="F112" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="G112" t="n">
         <v>5</v>
@@ -4338,10 +4320,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="F113" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -4367,10 +4349,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="F114" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="G114" t="n">
         <v>2</v>
@@ -4396,10 +4378,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="F115" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -4425,10 +4407,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="F116" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="G116" t="n">
         <v>2</v>
@@ -4454,10 +4436,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="F117" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -4483,10 +4465,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F118" t="s">
-        <v>141</v>
+        <v>10</v>
       </c>
       <c r="G118" t="n">
         <v>2</v>
@@ -4512,10 +4494,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="F119" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="G119" t="n">
         <v>2</v>
@@ -4541,10 +4523,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="F120" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="G120" t="n">
         <v>2</v>
@@ -4570,10 +4552,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="F121" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
